--- a/data/Final_Calculations.xlsx
+++ b/data/Final_Calculations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizziehealy/Desktop/DSAN_5550/Final Project/Greener_Pastures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7069B23-0CE5-C94C-9CE1-25472B23C23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564357A-4518-5145-8CC9-E912F362727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="27860" windowHeight="16800" xr2:uid="{029EDE42-AFEB-CD49-89CF-D70D52B47C80}"/>
+    <workbookView xWindow="460" yWindow="760" windowWidth="27860" windowHeight="16800" xr2:uid="{029EDE42-AFEB-CD49-89CF-D70D52B47C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">3) </t>
   </si>
   <si>
-    <t>=(500 gCO2eq/mile * 163.4) + (100 gCO2eq/min * 100 * 3)</t>
-  </si>
-  <si>
     <t>=(500 gCO2eq/mile * 173.5) + (100 gCO2eq/min * 100 * 3)</t>
   </si>
   <si>
@@ -137,12 +134,6 @@
     <t>Emissions</t>
   </si>
   <si>
-    <t>246.25 pdCO2eq</t>
-  </si>
-  <si>
-    <t>257.38 pdCO2eq</t>
-  </si>
-  <si>
     <t>319.89pdCO2eq</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>4 trips</t>
   </si>
   <si>
-    <t>73.64 pdCO2eq</t>
-  </si>
-  <si>
     <t>**********</t>
   </si>
   <si>
@@ -216,6 +204,18 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>=(500 gCO2eq/mile * 163.4) + (100 gCO2eq/min * 100 * 3) + 0.01gCO2q</t>
+  </si>
+  <si>
+    <t>257.39 pdCO2eq</t>
+  </si>
+  <si>
+    <t>246.27 pdCO2eq</t>
+  </si>
+  <si>
+    <t>73.62 pdCO2eq</t>
   </si>
 </sst>
 </file>
@@ -397,14 +397,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -420,15 +419,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -436,9 +433,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -921,124 +917,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D54F7E-7C49-7445-9174-A10B5E16B365}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="26" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>393</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>140.19999999999999</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>379</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>122.5</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>366</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>119.7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>583</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>230.2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>494</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>163.4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>515</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>173.5</v>
       </c>
     </row>
@@ -1048,1203 +1044,1190 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>583</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>230.2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>14</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>100</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>494</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>163.4</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>10</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>100</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>515</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>173.5</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>13</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>100</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12">
         <f>550/200000</f>
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
         <f>500*230.2</f>
         <v>115100</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9">
         <f>100*100*3</f>
         <v>30000</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="14">
+      <c r="A29" s="9"/>
+      <c r="B29" s="13">
         <f>B27+B28</f>
         <v>145100</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="9">
         <f>B29*0.00220462</f>
         <v>319.89036199999998</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="F29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
+      <c r="B37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14">
         <f>500*163.4</f>
         <v>81700</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14">
         <f>100*100*3</f>
         <v>30000</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="17">
-        <f>B38+B39</f>
-        <v>111700</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="16">
+        <f>B38+B39+0.01</f>
+        <v>111700.01</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="D40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="14">
         <f>B40*0.00220462</f>
-        <v>246.25605400000001</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
+        <v>246.25607604619998</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14">
         <f>500*173.5</f>
         <v>86750</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14">
         <f>100*100*3</f>
         <v>30000</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="17">
-        <f>B43+B44</f>
-        <v>116750</v>
-      </c>
-      <c r="C45" s="17" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="16">
+        <f>B43+B44+0.01</f>
+        <v>116750.01</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="15">
+      <c r="D45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="14">
         <f>B45*0.00220462</f>
-        <v>257.389385</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
+        <v>257.38940704620001</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
+      <c r="A47" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41">
+      <c r="J49" s="37"/>
+      <c r="K49" s="37">
         <f>3.23*230.2</f>
         <v>743.54599999999994</v>
       </c>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41">
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37">
         <v>583</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="37">
         <f>N49/60</f>
         <v>9.7166666666666668</v>
       </c>
-      <c r="P49" s="41"/>
+      <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41">
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37">
         <f>3.23*163.4</f>
         <v>527.78200000000004</v>
       </c>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41">
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37">
         <v>494</v>
       </c>
-      <c r="O50" s="41">
+      <c r="O50" s="37">
         <f>N50/60</f>
         <v>8.2333333333333325</v>
       </c>
-      <c r="P50" s="41"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37">
         <f>3.23*173.5</f>
         <v>560.40499999999997</v>
       </c>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41">
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37">
         <v>515</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="37">
         <f>N51/60</f>
         <v>8.5833333333333339</v>
       </c>
-      <c r="P51" s="41"/>
+      <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41">
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37">
         <f>20*9.716*10</f>
         <v>1943.1999999999998</v>
       </c>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37">
         <f>20*8.233 *10</f>
         <v>1646.6000000000004</v>
       </c>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37">
         <f>20*8.583 *10</f>
         <v>1716.6</v>
       </c>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" s="41">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="37">
         <f>K49+K53</f>
         <v>2686.7459999999996</v>
       </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="41">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="37">
         <f>K50+K54</f>
         <v>2174.3820000000005</v>
       </c>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" s="41">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="37">
         <f>K51+K55</f>
         <v>2277.0050000000001</v>
       </c>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41">
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37">
         <f>I57-I58</f>
         <v>512.36399999999912</v>
       </c>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I62" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37">
         <f>I57-I59</f>
         <v>409.74099999999953</v>
       </c>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H63" s="29"/>
-      <c r="I63" s="40"/>
+      <c r="I63" s="36"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="25"/>
+      <c r="D66" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C66" s="27"/>
-      <c r="D66" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="28" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C67" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>583</v>
+      </c>
+      <c r="E67">
+        <v>230.2</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C68" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="29">
+        <v>494</v>
+      </c>
+      <c r="E68" s="29">
+        <v>163.4</v>
+      </c>
+      <c r="F68" s="29">
+        <v>10</v>
+      </c>
+      <c r="G68" s="29">
+        <v>100</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C69" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>515</v>
+      </c>
+      <c r="E69">
+        <v>173.5</v>
+      </c>
+      <c r="F69">
         <v>13</v>
       </c>
-      <c r="G66" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C67" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="29">
-        <v>583</v>
-      </c>
-      <c r="E67" s="29">
-        <v>230.2</v>
-      </c>
-      <c r="F67" s="29">
-        <v>14</v>
-      </c>
-      <c r="G67" s="29">
+      <c r="G69">
         <v>100</v>
       </c>
-      <c r="H67" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C68" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="32">
-        <v>494</v>
-      </c>
-      <c r="E68" s="32">
-        <v>163.4</v>
-      </c>
-      <c r="F68" s="32">
-        <v>10</v>
-      </c>
-      <c r="G68" s="32">
-        <v>100</v>
-      </c>
-      <c r="H68" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C69" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="29">
-        <v>515</v>
-      </c>
-      <c r="E69" s="29">
-        <v>173.5</v>
-      </c>
-      <c r="F69" s="29">
-        <v>13</v>
-      </c>
-      <c r="G69" s="29">
-        <v>100</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>34</v>
+      <c r="H69" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2281,8 +2264,8 @@
         <v>4</v>
       </c>
       <c r="F74">
-        <f>319.89-246.25</f>
-        <v>73.639999999999986</v>
+        <f>319.89-246.27</f>
+        <v>73.619999999999976</v>
       </c>
       <c r="G74">
         <v>512.36400000000003</v>
@@ -2290,126 +2273,122 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="32"/>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="38" t="s">
         <v>38</v>
+      </c>
+      <c r="B78" s="30"/>
+      <c r="D78" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B79" s="30"/>
+      <c r="D79" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="D80" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="38" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B81" s="30"/>
+      <c r="D81" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="B82" s="31"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="44">
+      <c r="D82" s="40">
         <v>512.36400000000003</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
